--- a/新建 Microsoft Excel 工作表.xlsx
+++ b/新建 Microsoft Excel 工作表.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="15">
   <si>
     <t>第一部分</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,42 @@
   </si>
   <si>
     <t>第二部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第四部分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -392,15 +428,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>2017</v>
       </c>
@@ -410,8 +446,14 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -424,8 +466,20 @@
       <c r="E2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G2">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2">
+        <v>56</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -435,8 +489,17 @@
       <c r="D3">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G3">
+        <v>42</v>
+      </c>
+      <c r="J3">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -446,8 +509,17 @@
       <c r="D4">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G4">
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <v>58</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -457,8 +529,20 @@
       <c r="D5">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G5">
+        <v>44</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -468,8 +552,17 @@
       <c r="D6">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="J6">
+        <v>60</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -482,8 +575,17 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G7">
+        <v>46</v>
+      </c>
+      <c r="J7">
+        <v>61</v>
+      </c>
+      <c r="K7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -496,8 +598,20 @@
       <c r="E8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G8">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8">
+        <v>62</v>
+      </c>
+      <c r="K8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -510,8 +624,14 @@
       <c r="E9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G9">
+        <v>48</v>
+      </c>
+      <c r="J9">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -524,8 +644,14 @@
       <c r="E10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G10">
+        <v>49</v>
+      </c>
+      <c r="J10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -538,8 +664,14 @@
       <c r="E11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G11">
+        <v>50</v>
+      </c>
+      <c r="J11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -552,8 +684,14 @@
       <c r="E12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G12">
+        <v>51</v>
+      </c>
+      <c r="J12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -563,8 +701,14 @@
       <c r="D13">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G13">
+        <v>52</v>
+      </c>
+      <c r="J13">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -577,8 +721,14 @@
       <c r="E14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G14">
+        <v>53</v>
+      </c>
+      <c r="J14">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -591,8 +741,14 @@
       <c r="E15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="G15">
+        <v>54</v>
+      </c>
+      <c r="J15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -605,8 +761,14 @@
       <c r="E16" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="G16">
+        <v>55</v>
+      </c>
+      <c r="J16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -616,8 +778,17 @@
       <c r="D17">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>56</v>
+      </c>
+      <c r="J17">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -627,8 +798,17 @@
       <c r="D18">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>57</v>
+      </c>
+      <c r="J18">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -638,8 +818,17 @@
       <c r="D19">
         <v>38</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19">
+        <v>58</v>
+      </c>
+      <c r="J19">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -649,8 +838,17 @@
       <c r="D20">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>59</v>
+      </c>
+      <c r="J20">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -659,6 +857,15 @@
       </c>
       <c r="D21">
         <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21">
+        <v>60</v>
+      </c>
+      <c r="J21">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
